--- a/test_results/results_opt_1.xlsx
+++ b/test_results/results_opt_1.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[('A1', 1.0), ('B1', 0.0), ('D2', 0.0)]</t>
+          <t>[('A1', 1.0)]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[('D2', 0.475), ('A1', 0.306), ('C4', 0.096)]</t>
+          <t>[('D2', 0.475), ('A1', 0.306)]</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[('A2', 0.666), ('B2', 0.319), ('A3', 0.008)]</t>
+          <t>[('A2', 0.666), ('B2', 0.319)]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[('A3', 0.83), ('B2', 0.103), ('D4', 0.049)]</t>
+          <t>[('A3', 0.83), ('B2', 0.103)]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[('B4', 0.435), ('C4', 0.365), ('A4', 0.097)]</t>
+          <t>[('B4', 0.435), ('C4', 0.365)]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[('A4', 0.711), ('C3', 0.225), ('A3_5', 0.062)]</t>
+          <t>[('A4', 0.711), ('C3', 0.225)]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[('C4', 0.718), ('A4', 0.254), ('C3', 0.018)]</t>
+          <t>[('C4', 0.718), ('A4', 0.254)]</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[('D2', 0.54), ('B1', 0.301), ('A1', 0.07)]</t>
+          <t>[('D2', 0.54), ('B1', 0.301)]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[('B1', 0.992), ('A1', 0.007), ('D2', 0.0)]</t>
+          <t>[('B1', 0.992)]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[('B1', 0.504), ('D2', 0.413), ('C4', 0.066)]</t>
+          <t>[('B1', 0.504), ('D2', 0.413)]</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[('B2', 0.934), ('C1', 0.057), ('A2', 0.006)]</t>
+          <t>[('B2', 0.934)]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[('B3', 0.982), ('B4', 0.016), ('A3', 0.001)]</t>
+          <t>[('B3', 0.982)]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[('B4', 0.643), ('C4', 0.254), ('A4', 0.043)]</t>
+          <t>[('B4', 0.643), ('C4', 0.254)]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[('B4', 0.964), ('B3', 0.035), ('A3_5', 0.001)]</t>
+          <t>[('B4', 0.964)]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('B4', 0.513), ('C4', 0.32), ('C3', 0.098)]</t>
+          <t>[('B4', 0.513), ('C4', 0.32)]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[('C1', 0.967), ('D2', 0.017), ('B2', 0.014)]</t>
+          <t>[('C1', 0.967)]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[('C2', 0.954), ('D4', 0.038), ('B2', 0.007)]</t>
+          <t>[('C2', 0.954)]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[('C4', 0.537), ('C3', 0.353), ('D4', 0.039)]</t>
+          <t>[('C4', 0.537), ('C3', 0.353)]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[('C3', 0.587), ('D4', 0.377), ('C2', 0.035)]</t>
+          <t>[('C3', 0.587), ('D4', 0.377)]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('C3', 0.53), ('C4', 0.453), ('D4', 0.005)]</t>
+          <t>[('C3', 0.53), ('C4', 0.453)]</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[('C4', 0.906), ('A4', 0.083), ('B4', 0.002)]</t>
+          <t>[('C4', 0.906)]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[('C4', 0.957), ('A4', 0.041), ('C3', 0.002)]</t>
+          <t>[('C4', 0.957)]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[('D2', 0.719), ('C1', 0.279), ('D3', 0.001)]</t>
+          <t>[('D2', 0.719), ('C1', 0.279)]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[('D3', 0.606), ('C2', 0.297), ('C1', 0.077)]</t>
+          <t>[('D3', 0.606), ('C2', 0.297)]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[('D4', 0.903), ('C2', 0.055), ('B3', 0.021)]</t>
+          <t>[('D4', 0.903)]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
